--- a/angular page_test cases.xlsx
+++ b/angular page_test cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="159">
   <si>
     <t>ID</t>
   </si>
@@ -33,96 +33,6 @@
     <t>Expected Results</t>
   </si>
   <si>
-    <t>TC_1</t>
-  </si>
-  <si>
-    <t>TC_2</t>
-  </si>
-  <si>
-    <t>TC_3</t>
-  </si>
-  <si>
-    <t>TC_4</t>
-  </si>
-  <si>
-    <t>TC_5</t>
-  </si>
-  <si>
-    <t>TC_6</t>
-  </si>
-  <si>
-    <t>TC_7</t>
-  </si>
-  <si>
-    <t>TC_8</t>
-  </si>
-  <si>
-    <t>TC_9</t>
-  </si>
-  <si>
-    <t>TC_10</t>
-  </si>
-  <si>
-    <t>TC_11</t>
-  </si>
-  <si>
-    <t>TC_12</t>
-  </si>
-  <si>
-    <t>TC_13</t>
-  </si>
-  <si>
-    <t>TC_14</t>
-  </si>
-  <si>
-    <t>TC_15</t>
-  </si>
-  <si>
-    <t>TC_16</t>
-  </si>
-  <si>
-    <t>TC_17</t>
-  </si>
-  <si>
-    <t>TC_18</t>
-  </si>
-  <si>
-    <t>TC_19</t>
-  </si>
-  <si>
-    <t>TC_20</t>
-  </si>
-  <si>
-    <t>TC_21</t>
-  </si>
-  <si>
-    <t>TC_22</t>
-  </si>
-  <si>
-    <t>TC_23</t>
-  </si>
-  <si>
-    <t>TC_24</t>
-  </si>
-  <si>
-    <t>1) Страница открывается</t>
-  </si>
-  <si>
-    <t>Вход на сайт через Google chrome</t>
-  </si>
-  <si>
-    <t>1) Октрыть страницу https://angular.io/docs в бразузере Google chrome</t>
-  </si>
-  <si>
-    <t>Вход на сайт через Firefox</t>
-  </si>
-  <si>
-    <t>Вход на сайт через IE</t>
-  </si>
-  <si>
-    <t>Вход на сайт через Opera</t>
-  </si>
-  <si>
     <t>Проверка кнопки "Docs menu"</t>
   </si>
   <si>
@@ -144,12 +54,6 @@
     <t>Проверка кнопки "Blog"</t>
   </si>
   <si>
-    <t>Проверка строки поиска</t>
-  </si>
-  <si>
-    <t>Скролинг</t>
-  </si>
-  <si>
     <t>Изменение размеров страницы</t>
   </si>
   <si>
@@ -205,6 +109,468 @@
   </si>
   <si>
     <t>Проверка гиперссылок</t>
+  </si>
+  <si>
+    <t>Открыть мобильную версию сайта</t>
+  </si>
+  <si>
+    <t>Проверка корректности работы строки поиска</t>
+  </si>
+  <si>
+    <t>Вход на сайт через различные браузеры</t>
+  </si>
+  <si>
+    <t>1-4. Страница открывается</t>
+  </si>
+  <si>
+    <t>1. Октрыть страницу https://angular.io/docs в бразузере Google Chrome
+2. Октрыть страницу https://angular.io/docs в бразузере Firefox
+3. Октрыть страницу https://angular.io/docs в бразузере IE
+4. Октрыть страницу https://angular.io/docs в бразузере Opera</t>
+  </si>
+  <si>
+    <t>1. Октрыть мобильную версию https://angular.io/docs</t>
+  </si>
+  <si>
+    <t>1. Мобильная версия страницы открывается</t>
+  </si>
+  <si>
+    <t>Отмера поиска</t>
+  </si>
+  <si>
+    <t>Работа строки посика с кирилическими символами</t>
+  </si>
+  <si>
+    <t>Меню версии "next"</t>
+  </si>
+  <si>
+    <t>Меню версии "stable (v5.2.9)"</t>
+  </si>
+  <si>
+    <t>Меню версии " v4 (LTS)"</t>
+  </si>
+  <si>
+    <t>Меню версии "v2"</t>
+  </si>
+  <si>
+    <t>Меню версии "AngularDart"</t>
+  </si>
+  <si>
+    <t>Проверка якоря заголовков</t>
+  </si>
+  <si>
+    <t>Изменение масштабов страницы</t>
+  </si>
+  <si>
+    <t>1. Страница адаптируется под изменённый размер меняя разположение текста и кнопок</t>
+  </si>
+  <si>
+    <t>1. Страница адаптируется под изменённый масштаб меняя разположение текста и кнопок</t>
+  </si>
+  <si>
+    <t>1. Изменить масштаб страницы</t>
+  </si>
+  <si>
+    <t>1. Запустить браузер
+2. Открыть страницу  https://angular.io/docs</t>
+  </si>
+  <si>
+    <t>TA_1</t>
+  </si>
+  <si>
+    <t>TA_2</t>
+  </si>
+  <si>
+    <t>TA_3</t>
+  </si>
+  <si>
+    <t>TA_4</t>
+  </si>
+  <si>
+    <t>TA_5</t>
+  </si>
+  <si>
+    <t>TA_6</t>
+  </si>
+  <si>
+    <t>TA_7</t>
+  </si>
+  <si>
+    <t>TA_8</t>
+  </si>
+  <si>
+    <t>TA_9</t>
+  </si>
+  <si>
+    <t>TA_10</t>
+  </si>
+  <si>
+    <t>TA_11</t>
+  </si>
+  <si>
+    <t>TA_12</t>
+  </si>
+  <si>
+    <t>TA_13</t>
+  </si>
+  <si>
+    <t>TA_14</t>
+  </si>
+  <si>
+    <t>TA_15</t>
+  </si>
+  <si>
+    <t>TA_16</t>
+  </si>
+  <si>
+    <t>TA_17</t>
+  </si>
+  <si>
+    <t>TA_18</t>
+  </si>
+  <si>
+    <t>TA_19</t>
+  </si>
+  <si>
+    <t>TA_20</t>
+  </si>
+  <si>
+    <t>TA_21</t>
+  </si>
+  <si>
+    <t>TA_22</t>
+  </si>
+  <si>
+    <t>TA_23</t>
+  </si>
+  <si>
+    <t>TA_24</t>
+  </si>
+  <si>
+    <t>TA_25</t>
+  </si>
+  <si>
+    <t>TA_26</t>
+  </si>
+  <si>
+    <t>TA_27</t>
+  </si>
+  <si>
+    <t>TA_28</t>
+  </si>
+  <si>
+    <t>TA_29</t>
+  </si>
+  <si>
+    <t>TA_30</t>
+  </si>
+  <si>
+    <t>TA_31</t>
+  </si>
+  <si>
+    <t>TA_32</t>
+  </si>
+  <si>
+    <t>TA_33</t>
+  </si>
+  <si>
+    <t>TA_34</t>
+  </si>
+  <si>
+    <t>TA_35</t>
+  </si>
+  <si>
+    <t>TA_36</t>
+  </si>
+  <si>
+    <t>TA_37</t>
+  </si>
+  <si>
+    <t>TA_38</t>
+  </si>
+  <si>
+    <t>1. Запустить браузер</t>
+  </si>
+  <si>
+    <t>1. Изменить размер страницы</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Docs menu"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Home"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Features"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Docs"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Resources"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Events"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Blog"</t>
+  </si>
+  <si>
+    <t>1. Ввести валидный запрос в строку поиска (Например: get)
+2. Выбрать один из предложеных вариантов</t>
+  </si>
+  <si>
+    <t>1. Ввести валидный запрос в строку поиска (Например: test)
+2. Удалить написаное нажав на иконку "крестик"</t>
+  </si>
+  <si>
+    <t>1. Ввести запрос с кирилическими символами в строку поиска</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "GETTING STARTED"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "TUTORIAL"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "TUTORIAL"
+2. Нажать на кнопку "Introduction"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "TUTORIAL"
+2. Нажать на кнопку "The Application Shell"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "TUTORIAL"
+2. Нажать на кнопку "The Hero Editor"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "TUTORIAL"
+2. Нажать на кнопку "Display a Heroes List"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "TUTORIAL"
+2. Нажать на кнопку "Master/Detail Components"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "TUTORIAL"
+2. Нажать на кнопку "Services"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "TUTORIAL"
+2. Нажать на кнопку "Routing"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "TUTORIAL"
+2. Нажать на кнопку "HTTP"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "FUNDAMENTALS"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "TECHNIQUES"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку с версиями (stable (v5.2.9))
+2. Нажать на кнопку "next"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку с версиями (stable (v5.2.9))</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "API"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку с версиями (stable (v5.2.9))
+2. Нажать на кнопку "stable (v5.2.9)"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку с версиями (stable (v5.2.9))
+2. Нажать на кнопку " v4 (LTS)"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку с версиями (stable (v5.2.9))
+2. Нажать на кнопку "v2"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку с версиями (stable (v5.2.9))
+2. Нажать на кнопку "AngularDart"</t>
+  </si>
+  <si>
+    <t>1. Нажать на меню "Get a Glimpse of Angular"</t>
+  </si>
+  <si>
+    <t>1. Нажать на меню "Get Going with Angular"</t>
+  </si>
+  <si>
+    <t>1. Нажать на меню "Fundamentals"</t>
+  </si>
+  <si>
+    <t>1. Навести курсор на заголовок "What is Angular?"
+2. Нажать на появившуюся иконку скрепки
+3. Навести курсор на заголовок "Assumptions?"
+4. Нажать на появившуюся иконку скрепки
+5. Навести курсор на заголовок "Feedback?"
+6. Нажать на появившуюся иконку скрепки</t>
+  </si>
+  <si>
+    <t>1. "Docs menu" скрывается</t>
+  </si>
+  <si>
+    <t>1. Открывается домашняя страница сайта (https://angular.io/)</t>
+  </si>
+  <si>
+    <t>1. Открывается страница (https://angular.io/features) кнопка "Feature" подсветилась синим цветом</t>
+  </si>
+  <si>
+    <t>1. Кнопка "Docs" подсветилась синим цветом</t>
+  </si>
+  <si>
+    <t>1. Открывается страница (https://angular.io/resources) кнопка "Resources" подсветилась синим цветом</t>
+  </si>
+  <si>
+    <t>1. Открывается страница (https://angular.io/events) кнопка "Events" подсветилась синим цветом</t>
+  </si>
+  <si>
+    <t>1. Открывается страница (https://blog.angular.io/)</t>
+  </si>
+  <si>
+    <t>1. Появляется меню со схожими резульататами поиска
+2. Открывается страница с документацией выбраного запроса</t>
+  </si>
+  <si>
+    <t>1. Появляется меню со схожими резульататами поиска
+2. Меню с результатами поиска закрывается</t>
+  </si>
+  <si>
+    <t>1. Появляется меню с сообщением "No results found."</t>
+  </si>
+  <si>
+    <t>1. Открывается страница (https://angular.io/guide/quickstart) кнопка "GETTING STARTED" изменила цвет текста на синий</t>
+  </si>
+  <si>
+    <t>1. Открывается дропдаун меню с 8 подпунктами:
+"1. Introduction
+2. The Application Shell
+3. The Hero Editor
+4. Displaying a List
+5. Master/Detail Components
+6. Services
+7. Routing
+8. HTTP"</t>
+  </si>
+  <si>
+    <t>1. Открывается дропдаун меню
+2. Открывается страница (https://angular.io/tutorial) кнопка "Introduction" изменила цвет текста на синий</t>
+  </si>
+  <si>
+    <t>1. Открывается дропдаун меню
+2. Открывается страница (https://angular.io/tutorial/toh-pt0) кнопка "The Application Shell" изменила цвет текста на синий</t>
+  </si>
+  <si>
+    <t>1. Открывается дропдаун меню
+2. Открывается страница (https://angular.io/tutorial/toh-pt1) кнопка "The Hero Editor" изменила цвет текста на синий</t>
+  </si>
+  <si>
+    <t>1. Открывается дропдаун меню
+2. Открывается страница (https://angular.io/tutorial/toh-pt2) кнопка "Display a Heroes List" изменила цвет текста на синий</t>
+  </si>
+  <si>
+    <t>1. Открывается дропдаун меню
+2. Открывается страница (https://angular.io/tutorial/toh-pt3) кнопка "Master/Detail Components" изменила цвет текста на синий</t>
+  </si>
+  <si>
+    <t>1. Открывается дропдаун меню
+2. Открывается страница (https://angular.io/tutorial/toh-pt4) кнопка "Services" изменила цвет текста на синий</t>
+  </si>
+  <si>
+    <t>1. Открывается дропдаун меню
+2. Открывается страница (https://angular.io/tutorial/toh-pt5) кнопка "Routing" изменила цвет текста на синий</t>
+  </si>
+  <si>
+    <t>1. Открывается дропдаун меню
+2. Открывается страница (https://angular.io/tutorial/toh-pt6) кнопка "HTTP" изменила цвет текста на синий</t>
+  </si>
+  <si>
+    <t>1. Открывается дропдаун меню с подменю:
+- Architecture
+- Components &amp; Templates
+- Forms
+- Observables &amp; RxJS
+- Bootstrapping
+- NgModules
+- Dependency Injection
+- HttpClient
+- Routing &amp; Navigation
+- Testing
+- Cheat Sheet</t>
+  </si>
+  <si>
+    <t>1. Открывается дропдаун меню с подменю:
+- Internationalization (i18n)
+- Language Service
+- Security
+- Setup &amp; Deployment
+- Service Workers
+- Upgrading
+- Server-side Rendering
+- Visual Studio 2015 QuickStart
+- Style Guide
+- Glossary</t>
+  </si>
+  <si>
+    <t>1. Открывается меню с пунктами:
+- next
+- stable (v5.2.9)
+- v4 (LTS)
+- v2
+- AngularDart</t>
+  </si>
+  <si>
+    <t>1. Открывается меню с выбором версии
+2. Открывается страница (https://next.angular.io/)</t>
+  </si>
+  <si>
+    <t>1. Открывается страница (https://angular.io/api) кнопка "API" изменила цвет текста на синий</t>
+  </si>
+  <si>
+    <t>1. Открывается меню с выбором версии
+2. Открывается страница (https://angular.io/)</t>
+  </si>
+  <si>
+    <t>1. Открывается меню с выбором версии
+2. Открывается страница (https://v4.angular.io/docs)</t>
+  </si>
+  <si>
+    <t>1. Открывается меню с выбором версии
+2. Открывается страница (https://v2.angular.io/docs/ts/latest/)</t>
+  </si>
+  <si>
+    <t>1. Открывается меню с выбором версии
+2. Открывается страница (https://webdev.dartlang.org/angular)</t>
+  </si>
+  <si>
+    <t>1. Открывается страница с эмулятором среды разработки https://stackblitz.com/angular/gllyrlxmbpd</t>
+  </si>
+  <si>
+    <t>1. Открывается страница https://angular.io/guide/quickstart</t>
+  </si>
+  <si>
+    <t>1. Открывается страница https://angular.io/guide/architecture</t>
+  </si>
+  <si>
+    <t>1. Появляется иконка скрепки
+2. В строке поиска меняется ссылка (https://angular.io/docs#what-is-angular)
+3. Появляется иконка скрепки
+4. В строке поиска меняется ссылка (https://angular.io/docs#assumptions), положение страницы меняется к закголовку "Assumptions"
+5. Появляется иконка скрепки
+6. В строке поиска меняется ссылка (https://angular.io/docs#feedback) положение страницы меняется к закголовку "Feedback"</t>
+  </si>
+  <si>
+    <t>1. Нажать на гиперссылку</t>
+  </si>
+  <si>
+    <t>1. Открывается страница по гиперссылке</t>
   </si>
 </sst>
 </file>
@@ -250,13 +616,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,19 +924,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="39.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="42.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="5" max="5" width="37" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1">
@@ -584,242 +954,647 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="120">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45">
+      <c r="A7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60">
+      <c r="A8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60">
+      <c r="A11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60">
+      <c r="A12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45">
+      <c r="A13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60">
+      <c r="A14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="150">
+      <c r="A15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="75">
+      <c r="A16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="75">
+      <c r="A17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="75">
+      <c r="A18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="75">
+      <c r="A19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75">
+      <c r="A20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="75">
+      <c r="A21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="75">
+      <c r="A22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="75">
+      <c r="A23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="195">
+      <c r="A24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="180">
+      <c r="A25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45">
+      <c r="A26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="90">
+      <c r="A27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60">
+      <c r="A28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="60">
+      <c r="A29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="60">
+      <c r="A30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="60">
+      <c r="A31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="60">
+      <c r="A32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="60">
+      <c r="A33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45">
+      <c r="A34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45">
+      <c r="A35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="210">
+      <c r="A36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45">
+      <c r="A37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="D37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="45">
+      <c r="A38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45">
+      <c r="A39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="C26" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="C27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="C28" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="C29" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="C30" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="C31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/angular page_test cases.xlsx
+++ b/angular page_test cases.xlsx
@@ -120,9 +120,6 @@
     <t>Вход на сайт через различные браузеры</t>
   </si>
   <si>
-    <t>1-4. Страница открывается</t>
-  </si>
-  <si>
     <t>1. Октрыть страницу https://angular.io/docs в бразузере Google Chrome
 2. Октрыть страницу https://angular.io/docs в бразузере Firefox
 3. Октрыть страницу https://angular.io/docs в бразузере IE
@@ -130,9 +127,6 @@
   </si>
   <si>
     <t>1. Октрыть мобильную версию https://angular.io/docs</t>
-  </si>
-  <si>
-    <t>1. Мобильная версия страницы открывается</t>
   </si>
   <si>
     <t>Отмера поиска</t>
@@ -571,6 +565,14 @@
   </si>
   <si>
     <t>1. Открывается страница по гиперссылке</t>
+  </si>
+  <si>
+    <t>1-4. Страница открывается
+"Docs menu" открыто по умолчанию</t>
+  </si>
+  <si>
+    <t>1. Мобильная версия страницы открывается
+"Docs menu" скрыто по умолчанию</t>
   </si>
 </sst>
 </file>
@@ -956,645 +958,645 @@
     </row>
     <row r="2" spans="1:5" ht="120">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
       <c r="A7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60">
       <c r="A11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="60">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="150">
       <c r="A15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="75">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="75">
       <c r="A17" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="75">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="75">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="75">
       <c r="A20" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="75">
       <c r="A21" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="75">
       <c r="A22" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="75">
       <c r="A23" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="195">
       <c r="A24" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="180">
       <c r="A25" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45">
       <c r="A26" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="90">
       <c r="A27" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="60">
       <c r="A28" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60">
       <c r="A29" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="60">
       <c r="A30" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="60">
       <c r="A31" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="60">
       <c r="A32" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="60">
       <c r="A33" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45">
       <c r="A34" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="45">
       <c r="A35" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="210">
       <c r="A36" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="45">
       <c r="A37" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="45">
       <c r="A38" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="45">
       <c r="A39" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
